--- a/khusat_DB/question_db.xlsx
+++ b/khusat_DB/question_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이준호\Desktop\khusat_DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C269AA7B-E85E-4329-B3CC-A0B9E4831F5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEF3119-E8C6-498F-A6DB-D914744B38B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5490" yWindow="4710" windowWidth="28800" windowHeight="15435" xr2:uid="{B7B04BEA-90CC-49A3-88DC-395A2B4E391F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,18 +79,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나는 비밀을 아무에게도 말하지 않는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나는 활동적인것을 좋아합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나는 샤프가/연필이 좋습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나는 맛있는 반찬이 있으면 먼저/아껴먹습니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,22 +91,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나는 눈치가 빠르다/느리다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 법을 잘 지킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나는 참을성이 좋은편이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나는 식사가 맛이없어도 잘 먹는 편이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나는 신이 존재한다고 생각한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B-인 과목이 있으면 재수강을 한다/안한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나는 정밀한 조작에 자신이 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나는 내용을 이해/암기하려고 하는 편이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>답1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,6 +132,89 @@
   </si>
   <si>
     <t>나는 혼밥을 주 3회 이상합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠른편입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둔한편입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">나는 눈치가 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아껴먹습니다</t>
+  </si>
+  <si>
+    <t>먼저먹습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 필기할 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤프를 사용합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연필을 사용합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 친구의 비밀을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절대 말하지 않습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친한 친구에겐 말합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-인 과목이 있으면 재수강을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안고간다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">나는 식사가 맛이없어도 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다먹는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배부른 만큼만 먹는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 암기와 이해 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이해하는데 더 자신있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암기에 더 자신있습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*나는 법을 잘 지킨다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,13 +582,14 @@
   <dimension ref="B2:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="4" max="4" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
@@ -541,21 +597,21 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -563,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -574,10 +630,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -585,131 +641,263 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/khusat_DB/question_db.xlsx
+++ b/khusat_DB/question_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이준호\Desktop\khusat_DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daydream/Desktop/khusat_server/khusat_DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEF3119-E8C6-498F-A6DB-D914744B38B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E63D084-3F07-894B-9165-6537CE373637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="4710" windowWidth="28800" windowHeight="15435" xr2:uid="{B7B04BEA-90CC-49A3-88DC-395A2B4E391F}"/>
+    <workbookView xWindow="4420" yWindow="4460" windowWidth="28800" windowHeight="15440" xr2:uid="{B7B04BEA-90CC-49A3-88DC-395A2B4E391F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t>질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나는 개인의 기량이/팀의 협동심이 중요하다고 생각한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나는 시간을 오래 투자하는 일을 잘하는 편이다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나는 맛있는 반찬이 있으면 먼저/아껴먹습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나는 운동을 주 3회 이상 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,65 +111,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그렇습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아닙니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나는 1시간 이상 서 있을수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나는 혼밥을 주 3회 이상합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빠른편입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>둔한편입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">나는 눈치가 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아껴먹습니다</t>
-  </si>
-  <si>
-    <t>먼저먹습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나는 필기할 때</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>샤프를 사용합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연필을 사용합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나는 친구의 비밀을</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>절대 말하지 않습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>친한 친구에겐 말합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B-인 과목이 있으면 재수강을</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,31 +139,165 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">나는 식사가 맛이없어도 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>다먹는다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>배부른 만큼만 먹는다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 암기와 이해 중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이해하는데 더 자신있습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>암기에 더 자신있습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*나는 법을 잘 지킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 팀 안에서 어떤역할을 선호합니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 학습을 할때 내용을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암기하는 편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이해하는 편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇다</t>
+  </si>
+  <si>
+    <t>그렇다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니다</t>
+  </si>
+  <si>
+    <t>절대 말안한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친한 친구에게는 말한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤프를 선호한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연필을 선호한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 맛있는 반찬이 있으면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먼저 먹는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아껴 먹는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>느리다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남긴다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 밥이 맛이 없으면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 팀플에서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 기량이 중요하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>협동심이 중요하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 공감능력이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뛰어나다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떨어진다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 불편한 점이 있으면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개선한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적응한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 상사가 잘못된 지시를 한다면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따진다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 글을 잘 쓰는 편이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 엑셀작업에 능숙하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 혼밥을 주 3회 이상한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 포장지를</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>막뜯는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예쁘게 뜯는다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,7 +305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,325 +662,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C15FB2E-0D7F-429F-8245-B5B728FFC622}">
-  <dimension ref="B2:D29"/>
+  <dimension ref="B2:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
-    <col min="4" max="4" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
       <c r="D16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
       <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
         <v>9</v>
       </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
       <c r="B29" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/khusat_DB/question_db.xlsx
+++ b/khusat_DB/question_db.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daydream/Desktop/khusat_server/khusat_DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E63D084-3F07-894B-9165-6537CE373637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E957ABC9-A808-8F42-BE23-A9FE987330AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="4460" windowWidth="28800" windowHeight="15440" xr2:uid="{B7B04BEA-90CC-49A3-88DC-395A2B4E391F}"/>
+    <workbookView xWindow="17920" yWindow="500" windowWidth="17920" windowHeight="21900" xr2:uid="{B7B04BEA-90CC-49A3-88DC-395A2B4E391F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="question_db_txt" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,11 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
-  <si>
-    <t>질문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>나는 기분에 따라 행동합니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,18 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>답1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 1시간 이상 서 있을수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">나는 눈치가 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,6 +282,122 @@
   </si>
   <si>
     <t>예쁘게 뜯는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘못한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 물건의 사용법을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 새로운 환경에 적응을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼼꼼히 읽는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘 안읽는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대한 가볍게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요한거 전부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 여행갈때 짐을 어떻게 챙깁니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구가 새치기를 한다면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러려니한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지적한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 1시간 이상 서 있을수 있습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 워라밸을 따질때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>급여가 중요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복지가 중요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연인이 화가 났다면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적극적으로 풀어준다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간을 기다려준다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traffic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C15FB2E-0D7F-429F-8245-B5B728FFC622}">
-  <dimension ref="B2:D36"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -673,391 +773,938 @@
     <col min="2" max="2" width="47" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" customWidth="1"/>
     <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="5" max="10" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>-5</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8">
+        <v>-5</v>
+      </c>
+      <c r="H8">
+        <v>-5</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>-5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" t="s">
+      <c r="J15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
+        <v>32</v>
+      </c>
+      <c r="J18">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
+        <v>32</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
+        <v>32</v>
+      </c>
+      <c r="E21">
+        <v>-3</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
+        <v>32</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>22</v>
+      </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
+        <v>32</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24">
+        <v>-3</v>
+      </c>
+      <c r="F24">
+        <v>-3</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>8</v>
       </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
+        <v>32</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>25</v>
+      </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
+        <v>32</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>26</v>
+      </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33">
+        <v>-3</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="D27" t="s">
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>-3</v>
+      </c>
+      <c r="H35">
+        <v>-3</v>
+      </c>
+      <c r="I35">
+        <v>-3</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
         <v>65</v>
       </c>
-      <c r="D36" t="s">
-        <v>66</v>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38">
+        <v>-4</v>
+      </c>
+      <c r="I38">
+        <v>-4</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>-3</v>
+      </c>
+      <c r="I41">
+        <v>-3</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
